--- a/ky/downloads/data-excel/1.3.1.1f.xlsx
+++ b/ky/downloads/data-excel/1.3.1.1f.xlsx
@@ -32,9 +32,6 @@
     <t>к общей численности населения, процентов</t>
   </si>
   <si>
-    <t>1.3.1.1.f Доля лиц, получающих пенсии и пособия по инвалидности к общей численности населения</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>to the total population, percent</t>
+  </si>
+  <si>
+    <t>1.3.1.1f Доля лиц, получающих пенсии и пособия по инвалидности к общей численности населения</t>
   </si>
 </sst>
 </file>
@@ -470,11 +470,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -483,15 +481,15 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -506,7 +504,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -526,16 +524,17 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="5">
         <v>2007</v>
@@ -585,16 +584,19 @@
       <c r="S3" s="12">
         <v>2022</v>
       </c>
+      <c r="T3" s="12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>114961</v>
@@ -644,16 +646,19 @@
       <c r="S4" s="13">
         <v>211650</v>
       </c>
+      <c r="T4" s="13">
+        <v>217222</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10">
         <v>2.1907494237803631</v>
@@ -701,6 +706,9 @@
         <v>2.9794303052841493</v>
       </c>
       <c r="S5" s="14">
+        <v>2.9794303052841493</v>
+      </c>
+      <c r="T5" s="14">
         <v>2.9794303052841493</v>
       </c>
     </row>
